--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
+        <v>319.178</v>
+      </c>
+      <c r="D2" s="11">
         <v>565.28300000000002</v>
-      </c>
-      <c r="D2" s="11">
-        <v>319.178</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11">
+        <v>201.49299999999999</v>
+      </c>
+      <c r="D3" s="11">
         <v>508.75799999999998</v>
-      </c>
-      <c r="D3" s="11">
-        <v>201.49299999999999</v>
       </c>
       <c r="E3" s="3" t="b">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11">
+        <v>352.62</v>
+      </c>
+      <c r="D4" s="11">
         <v>502.565</v>
-      </c>
-      <c r="D4" s="11">
-        <v>352.62</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
+        <v>241.92</v>
+      </c>
+      <c r="D5" s="11">
         <v>418.44</v>
-      </c>
-      <c r="D5" s="11">
-        <v>241.92</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
+        <v>256.53800000000001</v>
+      </c>
+      <c r="D6" s="11">
         <v>534.91600000000005</v>
-      </c>
-      <c r="D6" s="11">
-        <v>256.53800000000001</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
+        <v>253.958</v>
+      </c>
+      <c r="D7" s="11">
         <v>579.75400000000002</v>
-      </c>
-      <c r="D7" s="11">
-        <v>253.958</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
+        <v>287.1626</v>
+      </c>
+      <c r="D8" s="11">
         <v>599.09400000000005</v>
-      </c>
-      <c r="D8" s="11">
-        <v>287.1626</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
+        <v>268.28089999999997</v>
+      </c>
+      <c r="D9" s="11">
         <v>589.09979999999996</v>
-      </c>
-      <c r="D9" s="11">
-        <v>268.28089999999997</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
+        <v>244.9126</v>
+      </c>
+      <c r="D10" s="11">
         <v>578.98440000000005</v>
-      </c>
-      <c r="D10" s="11">
-        <v>244.9126</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
+        <v>217.35499999999999</v>
+      </c>
+      <c r="D11" s="11">
         <v>565.94100000000003</v>
-      </c>
-      <c r="D11" s="11">
-        <v>217.35499999999999</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="11">
+        <v>192.6737</v>
+      </c>
+      <c r="D12" s="11">
         <v>554.17250000000001</v>
-      </c>
-      <c r="D12" s="11">
-        <v>192.6737</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
+        <v>290.01299999999998</v>
+      </c>
+      <c r="D13" s="11">
         <v>592.85069999999996</v>
-      </c>
-      <c r="D13" s="11">
-        <v>290.01299999999998</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="11">
+        <v>270.95100000000002</v>
+      </c>
+      <c r="D14" s="11">
         <v>583.76459999999997</v>
-      </c>
-      <c r="D14" s="11">
-        <v>270.95100000000002</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="11">
+        <v>247.85</v>
+      </c>
+      <c r="D15" s="11">
         <v>572.78229999999996</v>
-      </c>
-      <c r="D15" s="11">
-        <v>247.85</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="11">
+        <v>303.34710000000001</v>
+      </c>
+      <c r="D16" s="11">
         <v>606.76419999999996</v>
-      </c>
-      <c r="D16" s="11">
-        <v>303.34710000000001</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="12">
+        <v>219.40700000000001</v>
+      </c>
+      <c r="D17" s="12">
         <v>561.59280000000001</v>
-      </c>
-      <c r="D17" s="12">
-        <v>219.40700000000001</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>

--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana_Gorica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>from</t>
   </si>
@@ -81,18 +76,15 @@
   <si>
     <t>Point_object</t>
   </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -154,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,13 +159,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +485,7 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -525,17 +508,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>319.178</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>565.28300000000002</v>
       </c>
       <c r="E2" s="3" t="b">
@@ -547,20 +530,18 @@
       <c r="G2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>201.49299999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>508.75799999999998</v>
       </c>
       <c r="E3" s="3" t="b">
@@ -572,20 +553,18 @@
       <c r="G3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
         <v>352.62</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>502.565</v>
       </c>
       <c r="E4" s="3" t="b">
@@ -597,20 +576,18 @@
       <c r="G4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>241.92</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>418.44</v>
       </c>
       <c r="E5" s="3" t="b">
@@ -622,20 +599,18 @@
       <c r="G5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>256.53800000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>534.91600000000005</v>
       </c>
       <c r="E6" s="3" t="b">
@@ -647,20 +622,18 @@
       <c r="G6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>253.958</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>579.75400000000002</v>
       </c>
       <c r="E7" s="3" t="b">
@@ -672,20 +645,18 @@
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>287.1626</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>599.09400000000005</v>
       </c>
       <c r="E8" s="3" t="b">
@@ -697,20 +668,18 @@
       <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>268.28089999999997</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>589.09979999999996</v>
       </c>
       <c r="E9" s="3" t="b">
@@ -722,20 +691,18 @@
       <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>244.9126</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>578.98440000000005</v>
       </c>
       <c r="E10" s="3" t="b">
@@ -747,20 +714,18 @@
       <c r="G10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>217.35499999999999</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>565.94100000000003</v>
       </c>
       <c r="E11" s="3" t="b">
@@ -773,17 +738,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>192.6737</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>554.17250000000001</v>
       </c>
       <c r="E12" s="3" t="b">
@@ -796,17 +761,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>290.01299999999998</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>592.85069999999996</v>
       </c>
       <c r="E13" s="3" t="b">
@@ -819,17 +784,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>270.95100000000002</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>583.76459999999997</v>
       </c>
       <c r="E14" s="3" t="b">
@@ -841,22 +806,18 @@
       <c r="G14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>247.85</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>572.78229999999996</v>
       </c>
       <c r="E15" s="3" t="b">
@@ -869,17 +830,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>303.34710000000001</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>606.76419999999996</v>
       </c>
       <c r="E16" s="3" t="b">
@@ -896,13 +857,13 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>219.40700000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>561.59280000000001</v>
       </c>
       <c r="E17" s="3" t="b">
@@ -1224,7 +1185,7 @@
       <c r="K13">
         <v>3</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1246,7 +1207,7 @@
       <c r="K14">
         <v>3</v>
       </c>
-      <c r="P14" s="9"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1268,7 +1229,7 @@
       <c r="K15">
         <v>3</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1290,7 +1251,7 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1312,7 +1273,7 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1334,7 +1295,7 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1356,7 +1317,7 @@
       <c r="K19">
         <v>3</v>
       </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1378,7 +1339,7 @@
       <c r="K20">
         <v>3</v>
       </c>
-      <c r="P20" s="9"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1400,7 +1361,7 @@
       <c r="K21">
         <v>3</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1422,7 +1383,7 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1444,7 +1405,7 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="P23" s="9"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1466,7 +1427,7 @@
       <c r="K24">
         <v>3</v>
       </c>
-      <c r="P24" s="9"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1488,7 +1449,7 @@
       <c r="K25">
         <v>3</v>
       </c>
-      <c r="P25" s="9"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1510,7 +1471,7 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1532,7 +1493,7 @@
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="P27" s="10"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">

--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Brana_Gorica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -227,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,18 +479,18 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N1048576"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -508,7 +513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -516,22 +521,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="10">
+        <v>565.28300000000002</v>
+      </c>
+      <c r="D2" s="10">
         <v>319.178</v>
       </c>
-      <c r="D2" s="10">
-        <v>565.28300000000002</v>
-      </c>
       <c r="E2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -539,22 +544,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="10">
+        <v>508.75799999999998</v>
+      </c>
+      <c r="D3" s="10">
         <v>201.49299999999999</v>
       </c>
-      <c r="D3" s="10">
-        <v>508.75799999999998</v>
-      </c>
       <c r="E3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -562,22 +567,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="10">
+        <v>502.565</v>
+      </c>
+      <c r="D4" s="10">
         <v>352.62</v>
       </c>
-      <c r="D4" s="10">
-        <v>502.565</v>
-      </c>
       <c r="E4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -585,22 +590,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="10">
+        <v>418.44</v>
+      </c>
+      <c r="D5" s="10">
         <v>241.92</v>
       </c>
-      <c r="D5" s="10">
-        <v>418.44</v>
-      </c>
       <c r="E5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -608,22 +613,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="10">
+        <v>534.91600000000005</v>
+      </c>
+      <c r="D6" s="10">
         <v>256.53800000000001</v>
       </c>
-      <c r="D6" s="10">
-        <v>534.91600000000005</v>
-      </c>
       <c r="E6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -631,22 +636,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="10">
+        <v>579.75400000000002</v>
+      </c>
+      <c r="D7" s="10">
         <v>253.958</v>
       </c>
-      <c r="D7" s="10">
-        <v>579.75400000000002</v>
-      </c>
       <c r="E7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -654,11 +659,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="10">
+        <v>599.09400000000005</v>
+      </c>
+      <c r="D8" s="10">
         <v>287.1626</v>
       </c>
-      <c r="D8" s="10">
-        <v>599.09400000000005</v>
-      </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
@@ -669,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -677,11 +682,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="10">
+        <v>589.09979999999996</v>
+      </c>
+      <c r="D9" s="10">
         <v>268.28089999999997</v>
       </c>
-      <c r="D9" s="10">
-        <v>589.09979999999996</v>
-      </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
@@ -692,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -700,11 +705,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="10">
+        <v>578.98440000000005</v>
+      </c>
+      <c r="D10" s="10">
         <v>244.9126</v>
       </c>
-      <c r="D10" s="10">
-        <v>578.98440000000005</v>
-      </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
@@ -715,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -723,11 +728,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="10">
+        <v>565.94100000000003</v>
+      </c>
+      <c r="D11" s="10">
         <v>217.35499999999999</v>
       </c>
-      <c r="D11" s="10">
-        <v>565.94100000000003</v>
-      </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
@@ -738,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -746,11 +751,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="10">
+        <v>554.17250000000001</v>
+      </c>
+      <c r="D12" s="10">
         <v>192.6737</v>
       </c>
-      <c r="D12" s="10">
-        <v>554.17250000000001</v>
-      </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
@@ -761,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -769,11 +774,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="10">
+        <v>592.85069999999996</v>
+      </c>
+      <c r="D13" s="10">
         <v>290.01299999999998</v>
       </c>
-      <c r="D13" s="10">
-        <v>592.85069999999996</v>
-      </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
@@ -784,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -792,11 +797,11 @@
         <v>13</v>
       </c>
       <c r="C14" s="10">
+        <v>583.76459999999997</v>
+      </c>
+      <c r="D14" s="10">
         <v>270.95100000000002</v>
       </c>
-      <c r="D14" s="10">
-        <v>583.76459999999997</v>
-      </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
@@ -807,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -815,11 +820,11 @@
         <v>14</v>
       </c>
       <c r="C15" s="10">
+        <v>572.78229999999996</v>
+      </c>
+      <c r="D15" s="10">
         <v>247.85</v>
       </c>
-      <c r="D15" s="10">
-        <v>572.78229999999996</v>
-      </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
@@ -830,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -838,11 +843,11 @@
         <v>15</v>
       </c>
       <c r="C16" s="10">
+        <v>606.76419999999996</v>
+      </c>
+      <c r="D16" s="10">
         <v>303.34710000000001</v>
       </c>
-      <c r="D16" s="10">
-        <v>606.76419999999996</v>
-      </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
@@ -853,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -861,10 +866,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="11">
+        <v>561.59280000000001</v>
+      </c>
+      <c r="D17" s="11">
         <v>219.40700000000001</v>
-      </c>
-      <c r="D17" s="11">
-        <v>561.59280000000001</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -887,12 +892,12 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K3" sqref="K3:K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -951,11 +956,11 @@
       </c>
       <c r="F2" s="4"/>
       <c r="K2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -973,10 +978,10 @@
       </c>
       <c r="F3" s="5"/>
       <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -994,10 +999,10 @@
       </c>
       <c r="F4" s="5"/>
       <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1015,10 +1020,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1036,10 +1041,10 @@
       </c>
       <c r="F6" s="5"/>
       <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1057,10 +1062,10 @@
       </c>
       <c r="F7" s="5"/>
       <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1078,10 +1083,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1099,10 +1104,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1120,10 +1125,10 @@
       </c>
       <c r="F10" s="4"/>
       <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1141,10 +1146,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1162,10 +1167,10 @@
       </c>
       <c r="F12" s="5"/>
       <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1183,11 +1188,11 @@
       </c>
       <c r="F13" s="5"/>
       <c r="K13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1205,11 +1210,11 @@
       </c>
       <c r="F14" s="5"/>
       <c r="K14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1227,11 +1232,11 @@
       </c>
       <c r="F15" s="5"/>
       <c r="K15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1249,11 +1254,11 @@
       </c>
       <c r="F16" s="5"/>
       <c r="K16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1271,11 +1276,11 @@
       </c>
       <c r="F17" s="5"/>
       <c r="K17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1293,11 +1298,11 @@
       </c>
       <c r="F18" s="6"/>
       <c r="K18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1315,11 +1320,11 @@
       </c>
       <c r="F19" s="7"/>
       <c r="K19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1337,11 +1342,11 @@
       </c>
       <c r="F20" s="7"/>
       <c r="K20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1359,11 +1364,11 @@
       </c>
       <c r="F21" s="7"/>
       <c r="K21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1381,11 +1386,11 @@
       </c>
       <c r="F22" s="7"/>
       <c r="K22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1403,11 +1408,11 @@
       </c>
       <c r="F23" s="7"/>
       <c r="K23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1425,11 +1430,11 @@
       </c>
       <c r="F24" s="7"/>
       <c r="K24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1447,11 +1452,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="K25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1469,11 +1474,11 @@
       </c>
       <c r="F26" s="7"/>
       <c r="K26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1491,11 +1496,11 @@
       </c>
       <c r="F27" s="7"/>
       <c r="K27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1513,10 +1518,10 @@
       </c>
       <c r="F28" s="7"/>
       <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1534,10 +1539,10 @@
       </c>
       <c r="F29" s="7"/>
       <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1554,10 +1559,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="K30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1574,10 +1579,10 @@
         <v>52.2</v>
       </c>
       <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1594,10 +1599,10 @@
         <v>5.7</v>
       </c>
       <c r="K32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1614,10 +1619,10 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1634,10 +1639,10 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1654,10 +1659,10 @@
         <v>19.7</v>
       </c>
       <c r="K35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1674,10 +1679,10 @@
         <v>34.4</v>
       </c>
       <c r="K36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1694,10 +1699,10 @@
         <v>18.5</v>
       </c>
       <c r="K37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1714,10 +1719,10 @@
         <v>33.5</v>
       </c>
       <c r="K38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1734,10 +1739,10 @@
         <v>29.3</v>
       </c>
       <c r="K39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1754,10 +1759,10 @@
         <v>28.6</v>
       </c>
       <c r="K40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1774,10 +1779,10 @@
         <v>50.5</v>
       </c>
       <c r="K41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1794,10 +1799,10 @@
         <v>49.8</v>
       </c>
       <c r="K42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1814,10 +1819,10 @@
         <v>46</v>
       </c>
       <c r="K43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1834,10 +1839,10 @@
         <v>44</v>
       </c>
       <c r="K44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1854,10 +1859,10 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1874,10 +1879,10 @@
         <v>44.4</v>
       </c>
       <c r="K46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1894,10 +1899,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="K47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1914,10 +1919,10 @@
         <v>35.200000000000003</v>
       </c>
       <c r="K48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1934,10 +1939,10 @@
         <v>41.2</v>
       </c>
       <c r="K49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1954,10 +1959,10 @@
         <v>25.8</v>
       </c>
       <c r="K50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1974,10 +1979,10 @@
         <v>54.6</v>
       </c>
       <c r="K51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1994,10 +1999,10 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2014,10 +2019,10 @@
         <v>0.2</v>
       </c>
       <c r="K53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2034,10 +2039,10 @@
         <v>11.1</v>
       </c>
       <c r="K54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2054,10 +2059,10 @@
         <v>48.5</v>
       </c>
       <c r="K55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2074,10 +2079,10 @@
         <v>15.5</v>
       </c>
       <c r="K56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2094,10 +2099,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="K57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2114,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2134,10 +2139,10 @@
         <v>48.6</v>
       </c>
       <c r="K59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2154,10 +2159,10 @@
         <v>3.7</v>
       </c>
       <c r="K60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2174,10 +2179,10 @@
         <v>43.3</v>
       </c>
       <c r="K61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2194,10 +2199,10 @@
         <v>33.700000000000003</v>
       </c>
       <c r="K62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>44.8</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
+++ b/Data/Input/With_observations/Brana_Gorica/Brana_Gorica_nulta_serija.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="21072" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>from</t>
   </si>
@@ -73,19 +73,46 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
+  </si>
+  <si>
+    <t>dh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -476,21 +503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -504,16 +531,19 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -526,17 +556,16 @@
       <c r="D2" s="10">
         <v>319.178</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="b">
+      <c r="G2" s="10"/>
+      <c r="H2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -549,17 +578,16 @@
       <c r="D3" s="10">
         <v>201.49299999999999</v>
       </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="b">
+      <c r="G3" s="10"/>
+      <c r="H3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -572,17 +600,16 @@
       <c r="D4" s="10">
         <v>352.62</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G4" s="10"/>
+      <c r="H4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -595,17 +622,16 @@
       <c r="D5" s="10">
         <v>241.92</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5" s="10"/>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -618,17 +644,16 @@
       <c r="D6" s="10">
         <v>256.53800000000001</v>
       </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="b">
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -641,17 +666,16 @@
       <c r="D7" s="10">
         <v>253.958</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -664,17 +688,16 @@
       <c r="D8" s="10">
         <v>287.1626</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" s="10"/>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -687,17 +710,16 @@
       <c r="D9" s="10">
         <v>268.28089999999997</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G9" s="10"/>
+      <c r="H9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -710,17 +732,16 @@
       <c r="D10" s="10">
         <v>244.9126</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -733,17 +754,16 @@
       <c r="D11" s="10">
         <v>217.35499999999999</v>
       </c>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -756,17 +776,16 @@
       <c r="D12" s="10">
         <v>192.6737</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="10"/>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -779,17 +798,16 @@
       <c r="D13" s="10">
         <v>290.01299999999998</v>
       </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G13" s="10"/>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -802,17 +820,16 @@
       <c r="D14" s="10">
         <v>270.95100000000002</v>
       </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G14" s="10"/>
+      <c r="H14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -825,17 +842,16 @@
       <c r="D15" s="10">
         <v>247.85</v>
       </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="10"/>
+      <c r="H15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -848,17 +864,16 @@
       <c r="D16" s="10">
         <v>303.34710000000001</v>
       </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -871,13 +886,12 @@
       <c r="D17" s="11">
         <v>219.40700000000001</v>
       </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="b">
+      <c r="G17" s="11"/>
+      <c r="H17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -889,15 +903,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,16 +943,40 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -955,12 +993,12 @@
         <v>33.9</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -977,11 +1015,11 @@
         <v>59.8</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="K3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -998,11 +1036,11 @@
         <v>15</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1019,11 +1057,11 @@
         <v>45</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="K5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1040,11 +1078,11 @@
         <v>55.5</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="K6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1061,11 +1099,11 @@
         <v>55.7</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="K7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1082,11 +1120,11 @@
         <v>51.6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1103,11 +1141,11 @@
         <v>12.3</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1124,11 +1162,11 @@
         <v>49</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1145,11 +1183,11 @@
         <v>24.3</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1166,11 +1204,11 @@
         <v>36.1</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="K12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1187,12 +1225,12 @@
         <v>38.1</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1209,12 +1247,12 @@
         <v>59.1</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1231,12 +1269,12 @@
         <v>51.5</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1253,12 +1291,12 @@
         <v>49</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1275,12 +1313,12 @@
         <v>35.6</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1297,12 +1335,12 @@
         <v>10.1</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="K18">
-        <v>10</v>
-      </c>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1319,12 +1357,12 @@
         <v>11.7</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="K19">
-        <v>10</v>
-      </c>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1341,12 +1379,12 @@
         <v>34.299999999999997</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1363,12 +1401,12 @@
         <v>16.2</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="K21">
-        <v>10</v>
-      </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1385,12 +1423,12 @@
         <v>10</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1407,12 +1445,12 @@
         <v>39</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1429,12 +1467,12 @@
         <v>14.9</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1451,12 +1489,12 @@
         <v>25.9</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1473,12 +1511,12 @@
         <v>0.1</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1495,12 +1533,12 @@
         <v>39.200000000000003</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1517,11 +1555,11 @@
         <v>25</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="K28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1538,11 +1576,11 @@
         <v>19.8</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="K29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1558,11 +1596,11 @@
       <c r="E30">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1578,11 +1616,11 @@
       <c r="E31">
         <v>52.2</v>
       </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1598,11 +1636,11 @@
       <c r="E32">
         <v>5.7</v>
       </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1618,11 +1656,11 @@
       <c r="E33">
         <v>40</v>
       </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1638,11 +1676,11 @@
       <c r="E34">
         <v>2.6</v>
       </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1658,11 +1696,11 @@
       <c r="E35">
         <v>19.7</v>
       </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1678,11 +1716,11 @@
       <c r="E36">
         <v>34.4</v>
       </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1698,11 +1736,11 @@
       <c r="E37">
         <v>18.5</v>
       </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1718,11 +1756,11 @@
       <c r="E38">
         <v>33.5</v>
       </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1738,11 +1776,11 @@
       <c r="E39">
         <v>29.3</v>
       </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1758,11 +1796,11 @@
       <c r="E40">
         <v>28.6</v>
       </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1778,11 +1816,11 @@
       <c r="E41">
         <v>50.5</v>
       </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1798,11 +1836,11 @@
       <c r="E42">
         <v>49.8</v>
       </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1818,11 +1856,11 @@
       <c r="E43">
         <v>46</v>
       </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1838,11 +1876,11 @@
       <c r="E44">
         <v>44</v>
       </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1858,11 +1896,11 @@
       <c r="E45">
         <v>59</v>
       </c>
-      <c r="K45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1878,11 +1916,11 @@
       <c r="E46">
         <v>44.4</v>
       </c>
-      <c r="K46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1898,11 +1936,11 @@
       <c r="E47">
         <v>34.700000000000003</v>
       </c>
-      <c r="K47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1918,11 +1956,11 @@
       <c r="E48">
         <v>35.200000000000003</v>
       </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1938,11 +1976,11 @@
       <c r="E49">
         <v>41.2</v>
       </c>
-      <c r="K49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1958,11 +1996,11 @@
       <c r="E50">
         <v>25.8</v>
       </c>
-      <c r="K50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1978,11 +2016,11 @@
       <c r="E51">
         <v>54.6</v>
       </c>
-      <c r="K51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1998,11 +2036,11 @@
       <c r="E52">
         <v>18.899999999999999</v>
       </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2018,11 +2056,11 @@
       <c r="E53">
         <v>0.2</v>
       </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2038,11 +2076,11 @@
       <c r="E54">
         <v>11.1</v>
       </c>
-      <c r="K54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2058,11 +2096,11 @@
       <c r="E55">
         <v>48.5</v>
       </c>
-      <c r="K55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2078,11 +2116,11 @@
       <c r="E56">
         <v>15.5</v>
       </c>
-      <c r="K56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2098,11 +2136,11 @@
       <c r="E57">
         <v>35.299999999999997</v>
       </c>
-      <c r="K57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2118,11 +2156,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="K58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2138,11 +2176,11 @@
       <c r="E59">
         <v>48.6</v>
       </c>
-      <c r="K59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2158,11 +2196,11 @@
       <c r="E60">
         <v>3.7</v>
       </c>
-      <c r="K60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2178,11 +2216,11 @@
       <c r="E61">
         <v>43.3</v>
       </c>
-      <c r="K61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2198,11 +2236,11 @@
       <c r="E62">
         <v>33.700000000000003</v>
       </c>
-      <c r="K62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -2218,7 +2256,7 @@
       <c r="E63">
         <v>44.8</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>10</v>
       </c>
     </row>
